--- a/bin/config/xlsx/Test.xlsx
+++ b/bin/config/xlsx/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19820" windowHeight="7900"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H16" sqref="H16:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1352,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1382,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1412,7 +1412,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1442,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1472,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
@@ -1502,7 +1502,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>

--- a/bin/config/xlsx/Test.xlsx
+++ b/bin/config/xlsx/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowWidth="20260" windowHeight="9020"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -53,7 +53,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>map</t>
+    <t>map_key</t>
+  </si>
+  <si>
+    <t>map_value</t>
   </si>
   <si>
     <t>common</t>
@@ -1025,7 +1028,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1094,61 +1097,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="6:10">
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1156,26 +1165,26 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1186,26 +1195,26 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1216,26 +1225,26 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1246,26 +1255,26 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1276,26 +1285,26 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -1306,26 +1315,26 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -1336,26 +1345,26 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -1366,26 +1375,26 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
         <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -1396,26 +1405,26 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>100</v>
@@ -1426,26 +1435,26 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -1456,26 +1465,26 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -1486,26 +1495,26 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>100</v>

--- a/bin/config/xlsx/Test.xlsx
+++ b/bin/config/xlsx/Test.xlsx
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/Test.xlsx
+++ b/bin/config/xlsx/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20260" windowHeight="9020"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>obj_key</t>
+  </si>
+  <si>
+    <t>obj_value</t>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
   <si>
     <t>uint32</t>
@@ -1025,15 +1034,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E21"/>
+      <selection activeCell="Q21" sqref="Q21:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,460 +1073,1114 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="6:10">
+    <row r="7" spans="6:18">
       <c r="F7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J21">
         <v>100</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>100</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Test.xlsx
+++ b/bin/config/xlsx/Test.xlsx
@@ -47,10 +47,10 @@
     <t>level</t>
   </si>
   <si>
-    <t>obj_key</t>
-  </si>
-  <si>
-    <t>obj_value</t>
+    <t>testobj_key</t>
+  </si>
+  <si>
+    <t>testobj_value</t>
   </si>
   <si>
     <t>effect</t>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21:R21"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/Test.xlsx
+++ b/bin/config/xlsx/Test.xlsx
@@ -1034,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="F19" sqref="F19:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1278,813 +1278,93 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="6:18">
-      <c r="F7" t="s">
+    <row r="19" spans="6:18">
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I19" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J19" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K19" t="s">
         <v>15</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L19" t="s">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M19" t="s">
         <v>15</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N19" t="s">
         <v>15</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O19" t="s">
         <v>15</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P19" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q19" t="s">
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R19" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <v>100</v>
-      </c>
-      <c r="M14">
-        <v>100</v>
-      </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15">
-        <v>100</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>100</v>
-      </c>
-      <c r="M16">
-        <v>100</v>
-      </c>
-      <c r="N16">
-        <v>100</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17">
-        <v>100</v>
-      </c>
-      <c r="M17">
-        <v>100</v>
-      </c>
-      <c r="N17">
-        <v>100</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18">
-        <v>100</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="L18">
-        <v>100</v>
-      </c>
-      <c r="M18">
-        <v>100</v>
-      </c>
-      <c r="N18">
-        <v>100</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19">
-        <v>100</v>
-      </c>
-      <c r="K19">
-        <v>100</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19">
-        <v>100</v>
-      </c>
-      <c r="N19">
-        <v>100</v>
-      </c>
-      <c r="O19">
-        <v>100</v>
-      </c>
-      <c r="P19">
-        <v>100</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2093,93 +1373,813 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21">
-        <v>100</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-      <c r="M21">
-        <v>100</v>
-      </c>
-      <c r="N21">
-        <v>100</v>
-      </c>
-      <c r="O21">
-        <v>100</v>
-      </c>
-      <c r="P21">
-        <v>100</v>
-      </c>
-      <c r="Q21">
-        <v>100</v>
-      </c>
-      <c r="R21">
-        <v>100</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29">
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="M31">
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+      <c r="P31">
+        <v>100</v>
+      </c>
+      <c r="Q31">
+        <v>100</v>
+      </c>
+      <c r="R31">
+        <v>100</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Test.xlsx
+++ b/bin/config/xlsx/Test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -1034,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:R19"/>
+      <selection activeCell="W25" sqref="W25:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1739,448 +1739,16 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
-      <c r="K26">
-        <v>100</v>
-      </c>
-      <c r="L26">
-        <v>100</v>
-      </c>
-      <c r="M26">
-        <v>100</v>
-      </c>
-      <c r="N26">
-        <v>100</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
-      <c r="K27">
-        <v>100</v>
-      </c>
-      <c r="L27">
-        <v>100</v>
-      </c>
-      <c r="M27">
-        <v>100</v>
-      </c>
-      <c r="N27">
-        <v>100</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
-        <v>100</v>
-      </c>
-      <c r="M28">
-        <v>100</v>
-      </c>
-      <c r="N28">
-        <v>100</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
-      <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>100</v>
-      </c>
-      <c r="M29">
-        <v>100</v>
-      </c>
-      <c r="N29">
-        <v>100</v>
-      </c>
-      <c r="O29">
-        <v>100</v>
-      </c>
-      <c r="P29">
-        <v>100</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
-      <c r="M30">
-        <v>100</v>
-      </c>
-      <c r="N30">
-        <v>100</v>
-      </c>
-      <c r="O30">
-        <v>100</v>
-      </c>
-      <c r="P30">
-        <v>100</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-      <c r="K31">
-        <v>100</v>
-      </c>
-      <c r="L31">
-        <v>100</v>
-      </c>
-      <c r="M31">
-        <v>100</v>
-      </c>
-      <c r="N31">
-        <v>100</v>
-      </c>
-      <c r="O31">
-        <v>100</v>
-      </c>
-      <c r="P31">
-        <v>100</v>
-      </c>
-      <c r="Q31">
-        <v>100</v>
-      </c>
-      <c r="R31">
-        <v>100</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
